--- a/Worksheet#2/PowerRanking.xlsx
+++ b/Worksheet#2/PowerRanking.xlsx
@@ -1,113 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="144" windowWidth="22980" windowHeight="8760"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Tom Cruise</t>
-  </si>
-  <si>
-    <t>Rolling Stones</t>
-  </si>
-  <si>
-    <t>Oprah Winfrey</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>Tiger Woods</t>
-  </si>
-  <si>
-    <t>Steven Spielberg</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>50 Cent</t>
-  </si>
-  <si>
-    <t>Cast of the Sopranos</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Muhammad Ali</t>
-  </si>
-  <si>
-    <t>Paul McCartney</t>
-  </si>
-  <si>
-    <t>George Lucas</t>
-  </si>
-  <si>
-    <t>Elton John</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Phil Mickelson</t>
-  </si>
-  <si>
-    <t>J.K. Rowling</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Peter Jackson</t>
-  </si>
-  <si>
-    <t>Dr. Phil McGraw</t>
-  </si>
-  <si>
-    <t>Jay Leno</t>
-  </si>
-  <si>
-    <t>Celine Dion</t>
-  </si>
-  <si>
-    <t>Kobe Bryant</t>
-  </si>
-  <si>
-    <t>Power Ranking</t>
-  </si>
-  <si>
-    <t>Celebrity Name</t>
-  </si>
-  <si>
-    <t>Pay</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -135,19 +52,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -226,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -261,7 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,301 +350,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PowerRanking</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CelebrityName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Pay</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tom Cruise</t>
+        </is>
       </c>
       <c r="C2">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rolling Stones</t>
+        </is>
       </c>
       <c r="C3">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oprah Winfrey</t>
+        </is>
       </c>
       <c r="C4">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>U2</t>
+        </is>
       </c>
       <c r="C5">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tiger Woods</t>
+        </is>
       </c>
       <c r="C6">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Steven Spielberg</t>
+        </is>
       </c>
       <c r="C7">
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Howard Stern</t>
+        </is>
       </c>
       <c r="C8">
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>50 Cent</t>
+        </is>
       </c>
       <c r="C9">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cast of the Sopranos</t>
+        </is>
       </c>
       <c r="C10">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dan Brown</t>
+        </is>
       </c>
       <c r="C11">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bruce Springsteen</t>
+        </is>
       </c>
       <c r="C12">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Donald Trump</t>
+        </is>
       </c>
       <c r="C13">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Muhammad Ali</t>
+        </is>
       </c>
       <c r="C14">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Paul McCartney</t>
+        </is>
       </c>
       <c r="C15">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>George Lucas</t>
+        </is>
       </c>
       <c r="C16">
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Elton John</t>
+        </is>
       </c>
       <c r="C17">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>David Letterman</t>
+        </is>
       </c>
       <c r="C18">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>17</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Phil Mickelson</t>
+        </is>
       </c>
       <c r="C19">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>J.K Rowling</t>
+        </is>
       </c>
       <c r="C20">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bradd Pitt</t>
+        </is>
       </c>
       <c r="C21">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>20</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Peter Jackson</t>
+        </is>
       </c>
       <c r="C22">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>21</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Dr. Phil McGraw</t>
+        </is>
       </c>
       <c r="C23">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jay Lenon</t>
+        </is>
       </c>
       <c r="C24">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>23</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Celine Dion</t>
+        </is>
       </c>
       <c r="C25">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>24</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Kobe Bryant</t>
+        </is>
       </c>
       <c r="C26">
         <v>31</v>
@@ -740,28 +702,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>